--- a/doku/WI27_WebService.Definition.xlsx
+++ b/doku/WI27_WebService.Definition.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebService Operations" sheetId="1" r:id="rId1"/>
-    <sheet name="Requests" sheetId="9" r:id="rId2"/>
-    <sheet name="Responses" sheetId="10" r:id="rId3"/>
+    <sheet name="REST DOKU" sheetId="12" r:id="rId2"/>
+    <sheet name="Requests" sheetId="9" r:id="rId3"/>
+    <sheet name="Response" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="150">
   <si>
     <t>GetDevice</t>
   </si>
@@ -112,42 +113,6 @@
     <t>Web Service Response</t>
   </si>
   <si>
-    <t>GetDeviceRequest</t>
-  </si>
-  <si>
-    <t>AddDeviceRequest</t>
-  </si>
-  <si>
-    <t>RemoveDeviceRequest</t>
-  </si>
-  <si>
-    <t>GetAlarmRequest</t>
-  </si>
-  <si>
-    <t>AddAlarmRequest</t>
-  </si>
-  <si>
-    <t>RemoveAlarmRequest</t>
-  </si>
-  <si>
-    <t>GetDeviceActionRequest</t>
-  </si>
-  <si>
-    <t>AddDeviceActionRequest</t>
-  </si>
-  <si>
-    <t>RemoveDeviceActionRequest</t>
-  </si>
-  <si>
-    <t>GetActionGroupMemberRequest</t>
-  </si>
-  <si>
-    <t>AddActionGroupMemberRequest</t>
-  </si>
-  <si>
-    <t>RemoveActionGroupMemberRequest</t>
-  </si>
-  <si>
     <t>GetDeviceResponse</t>
   </si>
   <si>
@@ -238,18 +203,6 @@
     <t>RemoveDeviceResponse</t>
   </si>
   <si>
-    <t>ActivateActionGroupRequest</t>
-  </si>
-  <si>
-    <t>DisableActionGroupRequest</t>
-  </si>
-  <si>
-    <t>ActivateNightLightRequest</t>
-  </si>
-  <si>
-    <t>DisableNightLightRequest</t>
-  </si>
-  <si>
     <t>StartTime</t>
   </si>
   <si>
@@ -398,13 +351,139 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>REST URL</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/api/devices</t>
+  </si>
+  <si>
+    <t>/api/alarms</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/api/deviceactions</t>
+  </si>
+  <si>
+    <t>/api/actiongroupmembers</t>
+  </si>
+  <si>
+    <t>/api/actiongroup/activate</t>
+  </si>
+  <si>
+    <t>/api/actiongroup/disable</t>
+  </si>
+  <si>
+    <t>/api/nightlight/activate</t>
+  </si>
+  <si>
+    <t>/api/nightlight/disable</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Parameter 1</t>
+  </si>
+  <si>
+    <t>Gibt alle Devices zurück</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Gibt Device mit angegebener StringID zurück</t>
+  </si>
+  <si>
+    <t>Gibt alle Alarme zurück</t>
+  </si>
+  <si>
+    <t>Parameter 2</t>
+  </si>
+  <si>
+    <t>Parameter 3</t>
+  </si>
+  <si>
+    <t>Gibt die DeviceAction mit der ID &lt;ID&gt; des Devices mit der StringID &lt;StringID&gt; zurück</t>
+  </si>
+  <si>
+    <t>Gibt die ActionGroup mit der angegebenen GroupID zurück</t>
+  </si>
+  <si>
+    <t>Aktiviert die ActionGroup mit der angegebenen GroupID</t>
+  </si>
+  <si>
+    <t>Deaktiviert die ActionGroup mit der angegebenen GroupID</t>
+  </si>
+  <si>
+    <t>Aktiviert das angegebene Gerät mit der angegebenen DeviceAction</t>
+  </si>
+  <si>
+    <t>Deaktiviert die angegebene DeviceAction &lt;ID&gt; auf dem angegebenen Device &lt;StringID&gt;</t>
+  </si>
+  <si>
+    <t>Fügt ein neues Gerät ein</t>
+  </si>
+  <si>
+    <t>Parameter 4</t>
+  </si>
+  <si>
+    <t>Parameter 32</t>
+  </si>
+  <si>
+    <t>Fügt einen Alarm hinzu</t>
+  </si>
+  <si>
+    <t>Parameter 5</t>
+  </si>
+  <si>
+    <t>FieldNameN</t>
+  </si>
+  <si>
+    <t>FieldTypeN</t>
+  </si>
+  <si>
+    <t>FieldValueN</t>
+  </si>
+  <si>
+    <t>Fügt eine DeviceAction mit N Feldern hinzu (N = Anzahl Felder)</t>
+  </si>
+  <si>
+    <t>Fügt ein ActionGroupMember hinzu</t>
+  </si>
+  <si>
+    <t>Löscht das Device mit der StringID</t>
+  </si>
+  <si>
+    <t>Löscht den Alarm mit der ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Löscht die Device Action ID aus der DeviceAction Table des Device StringID </t>
+  </si>
+  <si>
+    <t>Löscht das ActionGroupMember mit der DeviceID aus der ActionGroup mit GroupID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +494,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -441,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,11 +548,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -501,9 +625,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -535,14 +656,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D23" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D23" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:D23"/>
   <tableColumns count="4">
     <tableColumn id="1" name="WebService Operations"/>
-    <tableColumn id="2" name="Web Service Request"/>
-    <tableColumn id="3" name="Web Service Response" dataDxfId="5">
-      <calculatedColumnFormula>_xlfn.CONCAT(A2,"Response")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" name="REST URL"/>
+    <tableColumn id="6" name="Operation"/>
     <tableColumn id="4" name="Use Case"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -550,30 +669,70 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H44" totalsRowShown="0">
-  <autoFilter ref="A1:H44"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Operation"/>
-    <tableColumn id="2" name="Feld"/>
-    <tableColumn id="3" name="Opt." dataDxfId="4"/>
-    <tableColumn id="4" name="Beispiel" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I18" totalsRowShown="0">
+  <autoFilter ref="A1:I18">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="POST"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="5" name="Operation" dataDxfId="0"/>
+    <tableColumn id="1" name="URL" dataDxfId="1"/>
+    <tableColumn id="2" name="Parameter 1"/>
+    <tableColumn id="3" name="Parameter 2"/>
+    <tableColumn id="6" name="Parameter 3"/>
+    <tableColumn id="8" name="Parameter 32"/>
+    <tableColumn id="7" name="Parameter 4"/>
+    <tableColumn id="10" name="Parameter 5"/>
+    <tableColumn id="4" name="Beschreibung"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:K44" totalsRowShown="0">
+  <autoFilter ref="A1:K44">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="/api/deviceactions"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="POST"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Use Case"/>
+    <tableColumn id="1" name="URL"/>
+    <tableColumn id="9" name="Operation"/>
+    <tableColumn id="2" name="Parameter"/>
+    <tableColumn id="3" name="Opt." dataDxfId="7"/>
+    <tableColumn id="4" name="Beispiel" dataDxfId="6"/>
     <tableColumn id="5" name="DB-Feld"/>
     <tableColumn id="6" name="Typ"/>
     <tableColumn id="7" name="Unique"/>
+    <tableColumn id="11" name="Example" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" name="Kommentar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A1:G51" totalsRowShown="0" headerRowDxfId="2">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A1:G51" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:G51"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Operation"/>
     <tableColumn id="5" name="Feld"/>
-    <tableColumn id="3" name="Anzahl" dataDxfId="1"/>
-    <tableColumn id="4" name="Beispiel" dataDxfId="0"/>
+    <tableColumn id="3" name="Anzahl" dataDxfId="4"/>
+    <tableColumn id="4" name="Beispiel" dataDxfId="3"/>
     <tableColumn id="6" name="DB-Feld"/>
     <tableColumn id="7" name="Typ"/>
     <tableColumn id="10" name="Kommentar"/>
@@ -879,288 +1038,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="4" t="str">
         <f>_xlfn.CONCAT(A2,"Request")</f>
         <v>GetDeviceRequest</v>
       </c>
-      <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C15" si="0">_xlfn.CONCAT(A2,"Response")</f>
+      <c r="J2" s="4" t="str">
+        <f>_xlfn.CONCAT(A2,"Response")</f>
         <v>GetDeviceResponse</v>
       </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="4" t="str">
         <f>_xlfn.CONCAT(A3,"Request")</f>
         <v>AddDeviceRequest</v>
       </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="J3" s="4" t="str">
+        <f>_xlfn.CONCAT(A3,"Response")</f>
         <v>AddDeviceResponse</v>
       </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B17" si="1">_xlfn.CONCAT(A4,"Request")</f>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>_xlfn.CONCAT(A4,"Request")</f>
         <v>RemoveDeviceRequest</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="J4" s="4" t="str">
+        <f>_xlfn.CONCAT(A4,"Response")</f>
         <v>RemoveDeviceResponse</v>
       </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xlfn.CONCAT(A5,"Request")</f>
         <v>GetAlarmRequest</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(A5,"Response")</f>
         <v>GetAlarmResponse</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="str">
+        <f>_xlfn.CONCAT(A6,"Request")</f>
         <v>AddAlarmRequest</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(A6,"Response")</f>
         <v>AddAlarmResponse</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="str">
+        <f>_xlfn.CONCAT(A7,"Request")</f>
         <v>RemoveAlarmRequest</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" t="str">
+        <f>_xlfn.CONCAT(A7,"Response")</f>
         <v>RemoveAlarmResponse</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="str">
+        <f>_xlfn.CONCAT(A8,"Request")</f>
         <v>GetDeviceActionRequest</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" t="str">
+        <f>_xlfn.CONCAT(A8,"Response")</f>
         <v>GetDeviceActionResponse</v>
       </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="str">
+        <f>_xlfn.CONCAT(A9,"Request")</f>
         <v>AddDeviceActionRequest</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
+      <c r="J9" t="str">
+        <f>_xlfn.CONCAT(A9,"Response")</f>
         <v>AddDeviceActionResponse</v>
       </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="str">
+        <f>_xlfn.CONCAT(A10,"Request")</f>
         <v>RemoveDeviceActionRequest</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J10" t="str">
+        <f>_xlfn.CONCAT(A10,"Response")</f>
         <v>RemoveDeviceActionResponse</v>
       </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="str">
+        <f>_xlfn.CONCAT(A11,"Request")</f>
         <v>GetActionGroupMemberRequest</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT(A11,"Response")</f>
         <v>GetActionGroupMemberResponse</v>
       </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="str">
+        <f>_xlfn.CONCAT(A12,"Request")</f>
         <v>AddActionGroupMemberRequest</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT(A12,"Response")</f>
         <v>AddActionGroupMemberResponse</v>
       </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="str">
+        <f>_xlfn.CONCAT(A13,"Request")</f>
         <v>RemoveActionGroupMemberRequest</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT(A13,"Response")</f>
         <v>RemoveActionGroupMemberResponse</v>
       </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="str">
+        <f>_xlfn.CONCAT(A14,"Request")</f>
         <v>ActivateActionGroupRequest</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
+      <c r="J14" t="str">
+        <f>_xlfn.CONCAT(A14,"Response")</f>
         <v>ActivateActionGroupResponse</v>
       </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="str">
+        <f>_xlfn.CONCAT(A15,"Request")</f>
         <v>DisableActionGroupRequest</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT(A15,"Response")</f>
         <v>DisableActionGroupResponse</v>
       </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="str">
+        <f>_xlfn.CONCAT(A16,"Request")</f>
         <v>ActivateNightLightRequest</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" ref="C16:C17" si="2">_xlfn.CONCAT(A16,"Response")</f>
+      <c r="J16" t="str">
+        <f>_xlfn.CONCAT(A16,"Response")</f>
         <v>ActivateNightLightResponse</v>
       </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="str">
+        <f>_xlfn.CONCAT(A17,"Request")</f>
         <v>DisableNightLightRequest</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="2"/>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT(A17,"Response")</f>
         <v>DisableNightLightResponse</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1173,794 +1435,1522 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="10" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7">
-        <v>600</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7">
-        <v>1</v>
+      <c r="I11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
       </c>
       <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="70.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/devices?StringID=WS2801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/devices?Name=WS2801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/devices?StringID=WS2801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/devices?GPIO=1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/devices?StringID=WS2801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="J7" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/alarms?=</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/alarms?StartTime=0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>600</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/alarms?Offset=600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/alarms?RepeatPattern=0100010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/alarms?Enabled=1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/alarms?ActionGroup=1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/alarms?ID=1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?StringID=WS2801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?ID=1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?StringID=WS2801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?ID=1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?FieldNName=LuxStart</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?FieldNType=Integer</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?FieldNValue=100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?StringID=WS2801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/deviceactions?ID=1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroupmembers?GroupID=1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroupmembers?GroupID=1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroupmembers?DeviceID=1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroupmembers?ActionID=1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5">
+        <v>600</v>
+      </c>
+      <c r="G27" t="s">
         <v>87</v>
       </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroupmembers?Offset=600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroupmembers?GroupID=1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroupmembers?DeviceID=1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroup/activate?GroupID=1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/actiongroup/disable?GroupID=1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G32" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/nightlight/activate?StringID=WS2801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/nightlight/activate?ID=1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/nightlight/disable?StringID=WS2801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5">
-        <v>600</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>72</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
-      <c r="D44" s="5"/>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>/api/nightlight/disable?ID=1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+      <c r="F36" s="5"/>
+      <c r="J36" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+      <c r="F37" s="5"/>
+      <c r="J37" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+      <c r="F38" s="5"/>
+      <c r="J38" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="J39" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+      <c r="F40" s="5"/>
+      <c r="J40" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="F41" s="5"/>
+      <c r="J41" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+      <c r="F42" s="5"/>
+      <c r="J42" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+      <c r="F43" s="5"/>
+      <c r="J43" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+      <c r="F44" s="5"/>
+      <c r="J44" t="str">
+        <f>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</f>
+        <v>?=</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,11 +2960,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -1991,13 +2981,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -2006,21 +2996,21 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -2029,18 +3019,18 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -2049,18 +3039,18 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -2069,15 +3059,15 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -2086,15 +3076,15 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -2103,15 +3093,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2120,15 +3110,15 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2137,135 +3127,135 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6">
         <v>0.375</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5">
         <v>600</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2274,15 +3264,15 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -2291,15 +3281,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -2308,15 +3298,15 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -2325,12 +3315,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -2345,12 +3335,12 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -2362,72 +3352,72 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D23" s="5">
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -2436,15 +3426,15 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -2453,15 +3443,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -2470,15 +3460,15 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -2487,12 +3477,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -2504,101 +3494,101 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D32" s="5">
         <v>600</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
@@ -2607,15 +3597,15 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -2624,15 +3614,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -2641,15 +3631,15 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -2658,15 +3648,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -2675,15 +3665,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -2692,15 +3682,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -2709,15 +3699,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -2726,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">

--- a/doku/WI27_WebService.Definition.xlsx
+++ b/doku/WI27_WebService.Definition.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Documents\FFHS\git\ESHH\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="155">
   <si>
     <t>GetDevice</t>
   </si>
@@ -477,6 +477,21 @@
   </si>
   <si>
     <t>Löscht das ActionGroupMember mit der DeviceID aus der ActionGroup mit GroupID</t>
+  </si>
+  <si>
+    <t>Löscht das Device aus allen ActionGroups</t>
+  </si>
+  <si>
+    <t>Löscht die ganze ActionGroup mit der GroupID</t>
+  </si>
+  <si>
+    <t>Löscht das Device mit der DeviceID</t>
+  </si>
+  <si>
+    <t>AlarmID</t>
+  </si>
+  <si>
+    <t>Gibt den Alarm mit der AlarmID zurück</t>
   </si>
 </sst>
 </file>
@@ -555,42 +570,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -615,6 +594,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -623,6 +605,39 @@
         <family val="2"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -669,17 +684,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I18" totalsRowShown="0">
-  <autoFilter ref="A1:I18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I22" totalsRowShown="0">
+  <autoFilter ref="A1:I22">
     <filterColumn colId="0">
       <filters>
-        <filter val="POST"/>
+        <filter val="GET"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="5" name="Operation" dataDxfId="0"/>
-    <tableColumn id="1" name="URL" dataDxfId="1"/>
+    <tableColumn id="5" name="Operation" dataDxfId="7"/>
+    <tableColumn id="1" name="URL" dataDxfId="6"/>
     <tableColumn id="2" name="Parameter 1"/>
     <tableColumn id="3" name="Parameter 2"/>
     <tableColumn id="6" name="Parameter 3"/>
@@ -711,12 +726,12 @@
     <tableColumn id="1" name="URL"/>
     <tableColumn id="9" name="Operation"/>
     <tableColumn id="2" name="Parameter"/>
-    <tableColumn id="3" name="Opt." dataDxfId="7"/>
-    <tableColumn id="4" name="Beispiel" dataDxfId="6"/>
+    <tableColumn id="3" name="Opt." dataDxfId="5"/>
+    <tableColumn id="4" name="Beispiel" dataDxfId="4"/>
     <tableColumn id="5" name="DB-Feld"/>
     <tableColumn id="6" name="Typ"/>
     <tableColumn id="7" name="Unique"/>
-    <tableColumn id="11" name="Example" dataDxfId="2">
+    <tableColumn id="11" name="Example" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Kommentar"/>
@@ -726,13 +741,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A1:G51" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A1:G51" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:G51"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Operation"/>
     <tableColumn id="5" name="Feld"/>
-    <tableColumn id="3" name="Anzahl" dataDxfId="4"/>
-    <tableColumn id="4" name="Beispiel" dataDxfId="3"/>
+    <tableColumn id="3" name="Anzahl" dataDxfId="1"/>
+    <tableColumn id="4" name="Beispiel" dataDxfId="0"/>
     <tableColumn id="6" name="DB-Feld"/>
     <tableColumn id="7" name="Typ"/>
     <tableColumn id="10" name="Kommentar"/>
@@ -1087,11 +1102,11 @@
         <v>42</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>_xlfn.CONCAT(A2,"Request")</f>
+        <f t="shared" ref="I2:I17" si="0">_xlfn.CONCAT(A2,"Request")</f>
         <v>GetDeviceRequest</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f>_xlfn.CONCAT(A2,"Response")</f>
+        <f t="shared" ref="J2:J17" si="1">_xlfn.CONCAT(A2,"Response")</f>
         <v>GetDeviceResponse</v>
       </c>
     </row>
@@ -1109,11 +1124,11 @@
         <v>43</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f>_xlfn.CONCAT(A3,"Request")</f>
+        <f t="shared" si="0"/>
         <v>AddDeviceRequest</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f>_xlfn.CONCAT(A3,"Response")</f>
+        <f t="shared" si="1"/>
         <v>AddDeviceResponse</v>
       </c>
     </row>
@@ -1131,11 +1146,11 @@
         <v>44</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>_xlfn.CONCAT(A4,"Request")</f>
+        <f t="shared" si="0"/>
         <v>RemoveDeviceRequest</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f>_xlfn.CONCAT(A4,"Response")</f>
+        <f t="shared" si="1"/>
         <v>RemoveDeviceResponse</v>
       </c>
     </row>
@@ -1153,11 +1168,11 @@
         <v>40</v>
       </c>
       <c r="I5" t="str">
-        <f>_xlfn.CONCAT(A5,"Request")</f>
+        <f t="shared" si="0"/>
         <v>GetAlarmRequest</v>
       </c>
       <c r="J5" t="str">
-        <f>_xlfn.CONCAT(A5,"Response")</f>
+        <f t="shared" si="1"/>
         <v>GetAlarmResponse</v>
       </c>
     </row>
@@ -1175,11 +1190,11 @@
         <v>39</v>
       </c>
       <c r="I6" t="str">
-        <f>_xlfn.CONCAT(A6,"Request")</f>
+        <f t="shared" si="0"/>
         <v>AddAlarmRequest</v>
       </c>
       <c r="J6" t="str">
-        <f>_xlfn.CONCAT(A6,"Response")</f>
+        <f t="shared" si="1"/>
         <v>AddAlarmResponse</v>
       </c>
     </row>
@@ -1197,11 +1212,11 @@
         <v>41</v>
       </c>
       <c r="I7" t="str">
-        <f>_xlfn.CONCAT(A7,"Request")</f>
+        <f t="shared" si="0"/>
         <v>RemoveAlarmRequest</v>
       </c>
       <c r="J7" t="str">
-        <f>_xlfn.CONCAT(A7,"Response")</f>
+        <f t="shared" si="1"/>
         <v>RemoveAlarmResponse</v>
       </c>
     </row>
@@ -1219,11 +1234,11 @@
         <v>40</v>
       </c>
       <c r="I8" t="str">
-        <f>_xlfn.CONCAT(A8,"Request")</f>
+        <f t="shared" si="0"/>
         <v>GetDeviceActionRequest</v>
       </c>
       <c r="J8" t="str">
-        <f>_xlfn.CONCAT(A8,"Response")</f>
+        <f t="shared" si="1"/>
         <v>GetDeviceActionResponse</v>
       </c>
     </row>
@@ -1241,11 +1256,11 @@
         <v>39</v>
       </c>
       <c r="I9" t="str">
-        <f>_xlfn.CONCAT(A9,"Request")</f>
+        <f t="shared" si="0"/>
         <v>AddDeviceActionRequest</v>
       </c>
       <c r="J9" t="str">
-        <f>_xlfn.CONCAT(A9,"Response")</f>
+        <f t="shared" si="1"/>
         <v>AddDeviceActionResponse</v>
       </c>
     </row>
@@ -1263,11 +1278,11 @@
         <v>41</v>
       </c>
       <c r="I10" t="str">
-        <f>_xlfn.CONCAT(A10,"Request")</f>
+        <f t="shared" si="0"/>
         <v>RemoveDeviceActionRequest</v>
       </c>
       <c r="J10" t="str">
-        <f>_xlfn.CONCAT(A10,"Response")</f>
+        <f t="shared" si="1"/>
         <v>RemoveDeviceActionResponse</v>
       </c>
     </row>
@@ -1285,11 +1300,11 @@
         <v>40</v>
       </c>
       <c r="I11" t="str">
-        <f>_xlfn.CONCAT(A11,"Request")</f>
+        <f t="shared" si="0"/>
         <v>GetActionGroupMemberRequest</v>
       </c>
       <c r="J11" t="str">
-        <f>_xlfn.CONCAT(A11,"Response")</f>
+        <f t="shared" si="1"/>
         <v>GetActionGroupMemberResponse</v>
       </c>
     </row>
@@ -1307,11 +1322,11 @@
         <v>39</v>
       </c>
       <c r="I12" t="str">
-        <f>_xlfn.CONCAT(A12,"Request")</f>
+        <f t="shared" si="0"/>
         <v>AddActionGroupMemberRequest</v>
       </c>
       <c r="J12" t="str">
-        <f>_xlfn.CONCAT(A12,"Response")</f>
+        <f t="shared" si="1"/>
         <v>AddActionGroupMemberResponse</v>
       </c>
     </row>
@@ -1329,11 +1344,11 @@
         <v>41</v>
       </c>
       <c r="I13" t="str">
-        <f>_xlfn.CONCAT(A13,"Request")</f>
+        <f t="shared" si="0"/>
         <v>RemoveActionGroupMemberRequest</v>
       </c>
       <c r="J13" t="str">
-        <f>_xlfn.CONCAT(A13,"Response")</f>
+        <f t="shared" si="1"/>
         <v>RemoveActionGroupMemberResponse</v>
       </c>
     </row>
@@ -1351,11 +1366,11 @@
         <v>47</v>
       </c>
       <c r="I14" t="str">
-        <f>_xlfn.CONCAT(A14,"Request")</f>
+        <f t="shared" si="0"/>
         <v>ActivateActionGroupRequest</v>
       </c>
       <c r="J14" t="str">
-        <f>_xlfn.CONCAT(A14,"Response")</f>
+        <f t="shared" si="1"/>
         <v>ActivateActionGroupResponse</v>
       </c>
     </row>
@@ -1373,11 +1388,11 @@
         <v>48</v>
       </c>
       <c r="I15" t="str">
-        <f>_xlfn.CONCAT(A15,"Request")</f>
+        <f t="shared" si="0"/>
         <v>DisableActionGroupRequest</v>
       </c>
       <c r="J15" t="str">
-        <f>_xlfn.CONCAT(A15,"Response")</f>
+        <f t="shared" si="1"/>
         <v>DisableActionGroupResponse</v>
       </c>
     </row>
@@ -1395,11 +1410,11 @@
         <v>51</v>
       </c>
       <c r="I16" t="str">
-        <f>_xlfn.CONCAT(A16,"Request")</f>
+        <f t="shared" si="0"/>
         <v>ActivateNightLightRequest</v>
       </c>
       <c r="J16" t="str">
-        <f>_xlfn.CONCAT(A16,"Response")</f>
+        <f t="shared" si="1"/>
         <v>ActivateNightLightResponse</v>
       </c>
     </row>
@@ -1417,11 +1432,11 @@
         <v>52</v>
       </c>
       <c r="I17" t="str">
-        <f>_xlfn.CONCAT(A17,"Request")</f>
+        <f t="shared" si="0"/>
         <v>DisableNightLightRequest</v>
       </c>
       <c r="J17" t="str">
-        <f>_xlfn.CONCAT(A17,"Response")</f>
+        <f t="shared" si="1"/>
         <v>DisableNightLightResponse</v>
       </c>
     </row>
@@ -1435,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1494,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>109</v>
       </c>
@@ -1490,7 +1505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -1504,7 +1519,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>109</v>
       </c>
@@ -1515,88 +1530,85 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1605,116 +1617,119 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1722,13 +1737,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1736,16 +1751,13 @@
         <v>113</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1753,16 +1765,75 @@
         <v>113</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I20" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/doku/WI27_WebService.Definition.xlsx
+++ b/doku/WI27_WebService.Definition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Documents\FFHS\git\ESHH\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="159">
   <si>
     <t>GetDevice</t>
   </si>
@@ -431,12 +431,6 @@
     <t>Deaktiviert die ActionGroup mit der angegebenen GroupID</t>
   </si>
   <si>
-    <t>Aktiviert das angegebene Gerät mit der angegebenen DeviceAction</t>
-  </si>
-  <si>
-    <t>Deaktiviert die angegebene DeviceAction &lt;ID&gt; auf dem angegebenen Device &lt;StringID&gt;</t>
-  </si>
-  <si>
     <t>Fügt ein neues Gerät ein</t>
   </si>
   <si>
@@ -492,6 +486,24 @@
   </si>
   <si>
     <t>Gibt den Alarm mit der AlarmID zurück</t>
+  </si>
+  <si>
+    <t>Aktiviert das angegebene Gerät mit der angegebenen DeviceAction, gibt die aktivierte ActionGroup zurück</t>
+  </si>
+  <si>
+    <t>Deaktiviert die angegebene DeviceAction &lt;ID&gt; auf dem angegebenen Device &lt;StringID&gt;, gibt die deaktivierte ActionGroup zurück</t>
+  </si>
+  <si>
+    <t>/api/nightlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibt alle aktivierten Nightlights als ActionGroups zurück </t>
+  </si>
+  <si>
+    <t>/api/actiongroup</t>
+  </si>
+  <si>
+    <t>Gibt alle manuell aktivierten ActionGroups zurück</t>
   </si>
 </sst>
 </file>
@@ -684,8 +696,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I22" totalsRowShown="0">
-  <autoFilter ref="A1:I22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0">
+  <autoFilter ref="A1:I24">
     <filterColumn colId="0">
       <filters>
         <filter val="GET"/>
@@ -1450,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,13 +1494,13 @@
         <v>129</v>
       </c>
       <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
         <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
-        <v>140</v>
       </c>
       <c r="I1" t="s">
         <v>125</v>
@@ -1538,10 +1550,10 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1613,11 +1625,8 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1630,11 +1639,8 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1654,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1680,7 +1686,7 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1694,19 +1700,19 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" t="s">
         <v>141</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" t="s">
-        <v>143</v>
       </c>
       <c r="G14" t="s">
         <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1729,7 +1735,7 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1743,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1763,7 @@
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1771,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1788,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1811,7 @@
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1819,7 +1825,7 @@
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1833,7 +1839,29 @@
         <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/doku/WI27_WebService.Definition.xlsx
+++ b/doku/WI27_WebService.Definition.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="163">
   <si>
     <t>GetDevice</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>Gibt alle manuell aktivierten ActionGroups zurück</t>
+  </si>
+  <si>
+    <t>/api/nightlight/associate</t>
+  </si>
+  <si>
+    <t>Assoziiert die StringID mit der GroupID als Nachtlicht</t>
+  </si>
+  <si>
+    <t>/api/nightlight/disassociate</t>
+  </si>
+  <si>
+    <t>Entfernt die StringID mit der GroupID als Nachtlicht</t>
   </si>
 </sst>
 </file>
@@ -582,6 +594,39 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -617,39 +662,6 @@
         <family val="2"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -696,8 +708,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0">
-  <autoFilter ref="A1:I24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I26" totalsRowShown="0">
+  <autoFilter ref="A1:I26">
     <filterColumn colId="0">
       <filters>
         <filter val="GET"/>
@@ -705,8 +717,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="5" name="Operation" dataDxfId="7"/>
-    <tableColumn id="1" name="URL" dataDxfId="6"/>
+    <tableColumn id="5" name="Operation" dataDxfId="1"/>
+    <tableColumn id="1" name="URL" dataDxfId="0"/>
     <tableColumn id="2" name="Parameter 1"/>
     <tableColumn id="3" name="Parameter 2"/>
     <tableColumn id="6" name="Parameter 3"/>
@@ -738,12 +750,12 @@
     <tableColumn id="1" name="URL"/>
     <tableColumn id="9" name="Operation"/>
     <tableColumn id="2" name="Parameter"/>
-    <tableColumn id="3" name="Opt." dataDxfId="5"/>
-    <tableColumn id="4" name="Beispiel" dataDxfId="4"/>
+    <tableColumn id="3" name="Opt." dataDxfId="7"/>
+    <tableColumn id="4" name="Beispiel" dataDxfId="6"/>
     <tableColumn id="5" name="DB-Feld"/>
     <tableColumn id="6" name="Typ"/>
     <tableColumn id="7" name="Unique"/>
-    <tableColumn id="11" name="Example" dataDxfId="3">
+    <tableColumn id="11" name="Example" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.CONCAT(Table8[[#This Row],[URL]],"?",Table8[[#This Row],[Parameter]],"=",Table8[[#This Row],[Beispiel]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Kommentar"/>
@@ -753,13 +765,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A1:G51" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A1:G51" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:G51"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Operation"/>
     <tableColumn id="5" name="Feld"/>
-    <tableColumn id="3" name="Anzahl" dataDxfId="1"/>
-    <tableColumn id="4" name="Beispiel" dataDxfId="0"/>
+    <tableColumn id="3" name="Anzahl" dataDxfId="3"/>
+    <tableColumn id="4" name="Beispiel" dataDxfId="2"/>
     <tableColumn id="6" name="DB-Feld"/>
     <tableColumn id="7" name="Typ"/>
     <tableColumn id="10" name="Kommentar"/>
@@ -1462,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,10 +1859,16 @@
         <v>109</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1858,9 +1876,37 @@
         <v>109</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I26" t="s">
         <v>158</v>
       </c>
     </row>
